--- a/Excel/UI/UIConfig.xlsx
+++ b/Excel/UI/UIConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B49D6B9-7D94-4247-84AE-51F7220BCDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="17970" yWindow="4380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -39,10 +40,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,19 +48,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Bundles/UI/UILogin.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Bundles/UI/UILobby.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UILobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,13 +70,17 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI资源路径  指向LocalizationArt的序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -494,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -509,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -523,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>20</v>
@@ -537,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>20</v>
